--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -1541,7 +1541,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>369967</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1629,7 +1629,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>341392</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1717,7 +1717,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>389017</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,7 +1849,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>408067</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>350917</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1981,7 +1981,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>408067</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2025,7 +2025,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>389017</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>341392</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2069,7 +2069,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>408067</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>369967</xdr:rowOff>
+      <xdr:rowOff>350917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2157,7 +2157,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>369967</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>350917</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2201,7 +2201,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>398542</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>350917</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2245,7 +2245,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>417592</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>350917</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2377,7 +2377,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>408067</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2421,7 +2421,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>417592</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>350917</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2553,7 +2553,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>360442</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>341392</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2641,7 +2641,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>331867</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2685,7 +2685,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>379492</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2773,7 +2773,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>360442</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2905,7 +2905,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>350917</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>341392</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3125,7 +3125,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>379492</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>360442</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3301,7 +3301,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>408067</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3433,7 +3433,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>398542</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>322342</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3477,7 +3477,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>427117</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3565,7 +3565,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>436642</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3609,7 +3609,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>398542</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>331867</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3785,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>436642</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>322342</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,7 +4049,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>427117</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>312817</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4181,7 +4181,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>417592</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>303292</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4225,7 +4225,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>389017</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>322342</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4269,7 +4269,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>360442</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>322342</xdr:rowOff>
+      <xdr:rowOff>217567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4293,6 +4293,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="22098000"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>36592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C567C7-ADB9-4B49-B19E-B38C5EFA2CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="16135350"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>427117</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="图片 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DEECAF-54E3-46F8-951D-CE5871B7C698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="13039725"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4881,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4957,7 +5045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.25" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -4999,7 +5087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.25" thickBot="1">
+    <row r="6" spans="1:9" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -5041,7 +5129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.25" thickBot="1">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1</v>
@@ -5062,7 +5150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.25" thickBot="1">
+    <row r="9" spans="1:9" ht="27.75" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>1</v>
@@ -5104,7 +5192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.25" thickBot="1">
+    <row r="11" spans="1:9" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1</v>
@@ -5176,7 +5264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="29.25" thickBot="1">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>1</v>
@@ -5203,7 +5291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="29.25" thickBot="1">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>1</v>
@@ -5224,7 +5312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29.25" thickBot="1">
+    <row r="16" spans="1:9" ht="27.75" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1</v>
@@ -5269,7 +5357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.25" thickBot="1">
+    <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1</v>
@@ -5293,7 +5381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="29.25" thickBot="1">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>1</v>
@@ -5317,7 +5405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="29.25" thickBot="1">
+    <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>1</v>
@@ -5384,7 +5472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29.25" thickBot="1">
+    <row r="23" spans="1:8" ht="17.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>1</v>
@@ -5405,7 +5493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="29.25" thickBot="1">
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>1</v>
@@ -5426,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.25" thickBot="1">
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1</v>
@@ -5492,7 +5580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.25" thickBot="1">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>1</v>
@@ -5534,7 +5622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.25" thickBot="1">
+    <row r="30" spans="1:8" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>1</v>
@@ -5555,7 +5643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.25" thickBot="1">
+    <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>1</v>
@@ -5600,7 +5688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.25" thickBot="1">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>1</v>
@@ -5669,7 +5757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29.25" thickBot="1">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>1</v>
@@ -5738,7 +5826,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="29.25" thickBot="1">
+    <row r="39" spans="1:8" ht="17.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1</v>
@@ -5759,7 +5847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29.25" thickBot="1">
+    <row r="40" spans="1:8" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>1</v>
@@ -5892,7 +5980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="29.25" thickBot="1">
+    <row r="46" spans="1:8" ht="27.75" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
@@ -5954,7 +6042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="29.25" thickBot="1">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>1</v>
@@ -5999,7 +6087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29.25" thickBot="1">
+    <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -6061,7 +6149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.25" thickBot="1">
+    <row r="54" spans="1:8" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>1</v>
@@ -6082,7 +6170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.25" thickBot="1">
+    <row r="55" spans="1:8" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>1</v>
@@ -6127,7 +6215,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.25" thickBot="1">
+    <row r="57" spans="1:8" ht="17.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>1</v>
@@ -6151,9 +6239,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.25" thickBot="1">
+    <row r="58" spans="1:8" ht="17.25" thickBot="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
       <c r="C58" s="2">
         <v>1457</v>
       </c>
@@ -6210,7 +6300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29.25" thickBot="1">
+    <row r="61" spans="1:8" ht="17.25" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2">
@@ -6232,7 +6322,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="29.25" thickBot="1">
+    <row r="62" spans="1:8" ht="17.25" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2">
@@ -6251,7 +6341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="29.25" thickBot="1">
+    <row r="63" spans="1:8" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>1</v>
@@ -6272,7 +6362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29.25" thickBot="1">
+    <row r="64" spans="1:8" ht="17.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>1</v>
@@ -6317,7 +6407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="29.25" thickBot="1">
+    <row r="66" spans="1:8" ht="17.25" thickBot="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2">
@@ -6336,7 +6426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="29.25" thickBot="1">
+    <row r="67" spans="1:8" ht="17.25" thickBot="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="2">
@@ -6376,7 +6466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="29.25" thickBot="1">
+    <row r="69" spans="1:8" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2">
@@ -6414,7 +6504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="29.25" thickBot="1">
+    <row r="71" spans="1:8" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2">
@@ -6454,7 +6544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="29.25" thickBot="1">
+    <row r="73" spans="1:8" ht="17.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>1</v>
@@ -6499,7 +6589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="27.75" thickBot="1">
+    <row r="75" spans="1:8" ht="17.25" thickBot="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>1</v>
@@ -6539,7 +6629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="29.25" thickBot="1">
+    <row r="77" spans="1:8" ht="17.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>1</v>
@@ -6598,7 +6688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="29.25" thickBot="1">
+    <row r="80" spans="1:8" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2">
@@ -6638,7 +6728,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="29.25" thickBot="1">
+    <row r="82" spans="1:7" ht="17.25" thickBot="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2">
@@ -6718,7 +6808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="29.25" thickBot="1">
+    <row r="86" spans="1:7" ht="27.75" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>1</v>
@@ -6739,7 +6829,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="29.25" thickBot="1">
+    <row r="87" spans="1:7" ht="17.25" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2">
@@ -6779,7 +6869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="29.25" thickBot="1">
+    <row r="89" spans="1:7" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2">
@@ -6838,7 +6928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="29.25" thickBot="1">
+    <row r="92" spans="1:7" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -6857,7 +6947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="29.25" thickBot="1">
+    <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -6876,7 +6966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="29.25" thickBot="1">
+    <row r="94" spans="1:7" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>1</v>
@@ -6918,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="29.25" thickBot="1">
+    <row r="96" spans="1:7" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2">
@@ -7141,7 +7231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
@@ -7155,7 +7245,7 @@
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -7442,7 +7532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27.75" thickBot="1">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
@@ -7689,7 +7779,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27.75" thickBot="1">
+    <row r="29" spans="1:7" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
@@ -7955,7 +8045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29.25" thickBot="1">
+    <row r="43" spans="1:7" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -8335,7 +8425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="29.25" thickBot="1">
+    <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2">
@@ -8449,7 +8539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.75" thickBot="1">
+    <row r="69" spans="1:7" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2">
@@ -8487,7 +8577,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="29.25" thickBot="1">
+    <row r="71" spans="1:7" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2">
@@ -8789,7 +8879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="41.25" thickBot="1">
+    <row r="87" spans="1:7" ht="27.75" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2">
@@ -8808,7 +8898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="29.25" thickBot="1">
+    <row r="88" spans="1:7" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2">
@@ -9112,7 +9202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="29.25" thickBot="1">
+    <row r="104" spans="1:7" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2">
@@ -9264,7 +9354,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="29.25" thickBot="1">
+    <row r="112" spans="1:7" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -4381,6 +4381,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238125" y="13039725"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82CA297-2A92-496F-BAFB-4918811E2AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="13239750"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4969,7 +5013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -970,6 +970,10 @@
   </si>
   <si>
     <t>Source</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4425,6 +4429,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="13239750"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>84217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA830A1-2FEF-4527-88F3-00C1090D5F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="19030950"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C06377A-5643-41D8-846B-AB0DEE7EF0B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="15430500"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5013,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6306,7 +6398,9 @@
     </row>
     <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
       <c r="C59" s="2">
         <v>1083</v>
       </c>
@@ -6512,7 +6606,9 @@
     </row>
     <row r="69" spans="1:8" ht="17.25" thickBot="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
       <c r="C69" s="2">
         <v>1139</v>
       </c>
@@ -6527,6 +6623,9 @@
       </c>
       <c r="G69" s="2">
         <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -4517,6 +4517,138 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="15430500"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135CCF61-DD00-46B4-A2D6-E243441295D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="23726775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7275B1-0632-495B-9030-53714CE47931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="17821275"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>122317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B1BDA8-75A9-4F90-8173-19B92120CFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="23498175"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5105,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P80" sqref="P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -4649,6 +4649,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="23498175"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2030D096-2B00-4DE0-B76C-B9192308F84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="18716625"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5237,8 +5281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -4693,6 +4693,138 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="18716625"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33485CE5-B816-4A84-80C6-3C12BF1307CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="18268950"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="图片 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EEBBEA-2F4F-46E5-ACF8-F921507CAA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="20402550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图片 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5418B3E-955C-4B4B-8AE7-DB6F164089B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="20593050"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5281,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7009,7 +7141,9 @@
     </row>
     <row r="80" spans="1:8" ht="17.25" thickBot="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
       <c r="C80" s="2">
         <v>1510</v>
       </c>
@@ -7049,7 +7183,9 @@
     </row>
     <row r="82" spans="1:7" ht="17.25" thickBot="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
       <c r="C82" s="2">
         <v>1161</v>
       </c>
@@ -7089,7 +7225,9 @@
     </row>
     <row r="84" spans="1:7" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
       <c r="C84" s="2">
         <v>1446</v>
       </c>
@@ -7230,7 +7368,9 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
       <c r="C91" s="2">
         <v>1902</v>
       </c>
@@ -7249,7 +7389,9 @@
     </row>
     <row r="92" spans="1:7" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
       <c r="C92" s="2">
         <v>1731</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -4825,6 +4825,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="20593050"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="图片 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6758F0FC-8A5E-4B84-8165-89103E53E5A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="15649575"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5413,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -4869,6 +4869,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="15649575"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="图片 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DCA3ED-43B1-4804-B2AE-593E6EFB3F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="15859125"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5457,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6982,7 +7026,9 @@
     </row>
     <row r="70" spans="1:8" ht="17.25" thickBot="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
       <c r="C70" s="2">
         <v>1194</v>
       </c>
@@ -7001,7 +7047,9 @@
     </row>
     <row r="71" spans="1:8" ht="17.25" thickBot="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
       <c r="C71" s="2">
         <v>2068</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5D768A99-EEEA-4C81-A48E-F4DEACEBFE0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -980,7 +981,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -4913,6 +4914,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="15859125"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D04E212-692F-4F6E-9502-05A825156060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="10029825"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5498,11 +5543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6492,7 +6537,9 @@
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
       <c r="C45" s="2">
         <v>1837</v>
       </c>
@@ -6507,9 +6554,6 @@
       </c>
       <c r="G45" s="2">
         <v>61</v>
-      </c>
-      <c r="H45" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="27.75" thickBot="1">
@@ -7583,196 +7627,196 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
@@ -7781,7 +7825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9986,234 +10030,234 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800"/>
-    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133"/>
-    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133"/>
-    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072"/>
-    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072"/>
-    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048"/>
-    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048"/>
-    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423"/>
-    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423"/>
-    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494"/>
-    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494"/>
-    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789"/>
-    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789"/>
-    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944"/>
-    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944"/>
-    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114"/>
-    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114"/>
-    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645"/>
-    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645"/>
-    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917"/>
-    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917"/>
-    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208"/>
-    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208"/>
-    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656"/>
-    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656"/>
-    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164"/>
-    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164"/>
-    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348"/>
-    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348"/>
-    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885"/>
-    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885"/>
-    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112"/>
-    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112"/>
-    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869"/>
-    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869"/>
-    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070"/>
-    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070"/>
-    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138"/>
-    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
@@ -10222,7 +10266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5D768A99-EEEA-4C81-A48E-F4DEACEBFE0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7E40291-9658-4B3E-9FAD-EBACB815E4F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -5216,6 +5216,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795FA7A1-0986-4A1F-BD77-F873F651B0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="1295400"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5546,7 +5590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -7828,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7960,7 +8004,9 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="2">
         <v>1020</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7E40291-9658-4B3E-9FAD-EBACB815E4F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{355D1EB2-71B7-4FEC-BEFE-828D0DD3C8AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -5255,6 +5255,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="1295400"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D4D850-A984-4ABB-A028-C3B50C16DC72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="657225"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7873,7 +7917,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7947,7 +7991,9 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2">
         <v>1214</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{355D1EB2-71B7-4FEC-BEFE-828D0DD3C8AB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D74BBBAD-8190-4745-8EC1-F68063A6B4ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5299,6 +5299,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="657225"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A7CF1-CCA9-456C-B35D-AA4841B3C937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1733550"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7917,7 +7961,7 @@
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8090,7 +8134,9 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
       <c r="C9" s="2">
         <v>1330</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D74BBBAD-8190-4745-8EC1-F68063A6B4ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17FCCAB1-6528-4BC6-A616-F6737F03DE65}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="314">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5343,6 +5347,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="1733550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFD34BD-F692-468E-89AD-660E91E28285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="2190750"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7958,10 +8006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7974,7 +8022,7 @@
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -7995,7 +8043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
@@ -8014,7 +8062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -8033,7 +8081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -8054,7 +8102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
@@ -8073,7 +8121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -8092,7 +8140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>1</v>
@@ -8113,7 +8161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
@@ -8132,7 +8180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>1</v>
@@ -8153,7 +8201,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2">
@@ -8171,10 +8219,15 @@
       <c r="G10" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
       <c r="C11" s="2">
         <v>1573</v>
       </c>
@@ -8191,7 +8244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.25" thickBot="1">
+    <row r="12" spans="1:8" ht="29.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2">
@@ -8210,7 +8263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
@@ -8229,7 +8282,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2">
@@ -8248,7 +8301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+    <row r="15" spans="1:8" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
@@ -8267,7 +8320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17FCCAB1-6528-4BC6-A616-F6737F03DE65}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4392CA58-BE71-445F-BA40-AACE71256FD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="314">
   <si>
     <t>ID</t>
   </si>
@@ -5391,6 +5391,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="2190750"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB6CBF-760F-42DE-9CEA-AA2FD3A7100D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="2543175"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8009,7 +8053,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8246,7 +8290,9 @@
     </row>
     <row r="12" spans="1:8" ht="29.25" thickBot="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2">
         <v>2010</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4392CA58-BE71-445F-BA40-AACE71256FD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A71F114-79D8-400C-8A74-DC1319D237B4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5435,6 +5443,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="2543175"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFDD3D6-6E45-41DD-B96F-94C2E4326663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7429500"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8052,8 +8104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8327,6 +8379,9 @@
       <c r="G13" s="2">
         <v>111</v>
       </c>
+      <c r="H13" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="2"/>
@@ -8346,6 +8401,9 @@
       <c r="G14" s="2">
         <v>111</v>
       </c>
+      <c r="H14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1">
       <c r="A15" s="2"/>
@@ -8365,6 +8423,9 @@
       <c r="G15" s="2">
         <v>112</v>
       </c>
+      <c r="H15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="2"/>
@@ -8384,8 +8445,11 @@
       <c r="G16" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
@@ -8403,8 +8467,11 @@
       <c r="G17" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -8423,7 +8490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2">
@@ -8442,7 +8509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+    <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
@@ -8461,7 +8528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1">
+    <row r="21" spans="1:8" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
@@ -8480,7 +8547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1">
+    <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
@@ -8499,7 +8566,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" thickBot="1">
+    <row r="23" spans="1:8" ht="17.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -8517,8 +8584,11 @@
       <c r="G23" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
@@ -8537,7 +8607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.75" thickBot="1">
+    <row r="25" spans="1:8" ht="27.75" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -8556,7 +8626,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1">
+    <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -8574,8 +8644,11 @@
       <c r="G26" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2">
@@ -8594,7 +8667,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" thickBot="1">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
@@ -8613,7 +8686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2">
@@ -8632,7 +8705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1">
+    <row r="30" spans="1:8" ht="17.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
@@ -8651,7 +8724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27.75" thickBot="1">
+    <row r="31" spans="1:8" ht="27.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
@@ -8670,7 +8743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1">
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -8689,9 +8762,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
       <c r="C33" s="2">
         <v>1688</v>
       </c>
@@ -8708,7 +8783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.25" thickBot="1">
+    <row r="34" spans="1:8" ht="29.25" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
@@ -8726,8 +8801,11 @@
       <c r="G34" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
@@ -8746,7 +8824,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29.25" thickBot="1">
+    <row r="36" spans="1:8" ht="29.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
@@ -8765,7 +8843,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1">
+    <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
@@ -8784,7 +8862,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" thickBot="1">
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
@@ -8803,7 +8881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25" thickBot="1">
+    <row r="39" spans="1:8" ht="17.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
@@ -8822,7 +8900,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" thickBot="1">
+    <row r="40" spans="1:8" ht="17.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
@@ -8841,7 +8919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
@@ -8860,7 +8938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1">
+    <row r="42" spans="1:8" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
@@ -8879,7 +8957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1">
+    <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -8898,7 +8976,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+    <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
@@ -8917,7 +8995,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
@@ -8936,7 +9014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+    <row r="46" spans="1:8" ht="17.25" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
@@ -8955,7 +9033,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29.25" thickBot="1">
+    <row r="47" spans="1:8" ht="29.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
@@ -8974,7 +9052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25" thickBot="1">
+    <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A71F114-79D8-400C-8A74-DC1319D237B4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0ECA6930-19C6-4BA3-8CB2-0EBEA6D4F1F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="317">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5487,6 +5491,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="7429500"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>188992</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BD6095-46B0-4B48-9DCF-03F2D3CE9A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9686925"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8104,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8956,6 +9004,9 @@
       <c r="G42" s="2">
         <v>142</v>
       </c>
+      <c r="H42" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
@@ -9071,7 +9122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+    <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2">
@@ -9090,7 +9141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25" thickBot="1">
+    <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -9109,7 +9160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+    <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -9128,7 +9179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.25" thickBot="1">
+    <row r="52" spans="1:8" ht="29.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2">
@@ -9146,8 +9197,11 @@
       <c r="G52" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="27.75" thickBot="1">
+      <c r="H52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="27.75" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
@@ -9166,7 +9220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.25" thickBot="1">
+    <row r="54" spans="1:8" ht="17.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
@@ -9185,7 +9239,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+    <row r="55" spans="1:8" ht="17.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2">
@@ -9204,7 +9258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25" thickBot="1">
+    <row r="56" spans="1:8" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2">
@@ -9223,7 +9277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.25" thickBot="1">
+    <row r="57" spans="1:8" ht="17.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -9242,7 +9296,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="29.25" thickBot="1">
+    <row r="58" spans="1:8" ht="29.25" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2">
@@ -9261,7 +9315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.25" thickBot="1">
+    <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2">
@@ -9280,7 +9334,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" thickBot="1">
+    <row r="60" spans="1:8" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2">
@@ -9299,7 +9353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" thickBot="1">
+    <row r="61" spans="1:8" ht="17.25" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2">
@@ -9318,7 +9372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27.75" thickBot="1">
+    <row r="62" spans="1:8" ht="27.75" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2">
@@ -9337,7 +9391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.25" thickBot="1">
+    <row r="63" spans="1:8" ht="17.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2">
@@ -9356,7 +9410,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.25" thickBot="1">
+    <row r="64" spans="1:8" ht="17.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0ECA6930-19C6-4BA3-8CB2-0EBEA6D4F1F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{945E1717-3B82-4F68-985C-EC25FA99B40C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="317">
   <si>
     <t>ID</t>
   </si>
@@ -5535,6 +5535,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9686925"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52808660-19A7-4B91-94EF-3AD258A16D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="4981575"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8152,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8616,7 +8660,9 @@
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
       <c r="C23" s="2">
         <v>1044</v>
       </c>
@@ -8632,8 +8678,8 @@
       <c r="G23" s="2">
         <v>119</v>
       </c>
-      <c r="H23" t="s">
-        <v>315</v>
+      <c r="H23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1">
@@ -8829,6 +8875,9 @@
       </c>
       <c r="G33" s="2">
         <v>129</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{945E1717-3B82-4F68-985C-EC25FA99B40C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB2AB847-DC25-43F5-B86F-17FB1F4D506D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="317">
   <si>
     <t>ID</t>
   </si>
@@ -5579,6 +5579,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="4981575"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>293767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE44E24-1957-40B4-A462-5294E7B0F039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="12134850"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8196,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9037,7 +9081,9 @@
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
       <c r="C42" s="2">
         <v>1740</v>
       </c>
@@ -9059,7 +9105,9 @@
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
       <c r="C43" s="2">
         <v>1167</v>
       </c>
@@ -9230,7 +9278,9 @@
     </row>
     <row r="52" spans="1:8" ht="29.25" thickBot="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
       <c r="C52" s="2">
         <v>1142</v>
       </c>
@@ -9246,8 +9296,8 @@
       <c r="G52" s="2">
         <v>147</v>
       </c>
-      <c r="H52" t="s">
-        <v>316</v>
+      <c r="H52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="27.75" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB2AB847-DC25-43F5-B86F-17FB1F4D506D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDEE4264-5172-43F2-B434-74D898248614}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5623,6 +5631,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="12134850"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="11620500"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8240,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9218,6 +9270,9 @@
       <c r="G48" s="2">
         <v>145</v>
       </c>
+      <c r="H48" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="2"/>
@@ -9237,10 +9292,15 @@
       <c r="G49" s="2">
         <v>146</v>
       </c>
+      <c r="H49" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
       <c r="C50" s="2">
         <v>1026</v>
       </c>
@@ -9275,6 +9335,9 @@
       <c r="G51" s="2">
         <v>147</v>
       </c>
+      <c r="H51" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="29.25" thickBot="1">
       <c r="A52" s="2"/>
@@ -9355,6 +9418,9 @@
       </c>
       <c r="G55" s="2">
         <v>152</v>
+      </c>
+      <c r="H55" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDEE4264-5172-43F2-B434-74D898248614}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58F066D0-7264-4A70-9BA3-5DBAE1E3B149}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5511,15 +5511,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>188992</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>188992</xdr:rowOff>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5542,7 +5542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9686925"/>
+          <a:off x="171450" y="10353675"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8293,7 +8293,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9197,7 +9197,9 @@
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
       <c r="C45" s="2">
         <v>1964</v>
       </c>
@@ -9212,6 +9214,9 @@
       </c>
       <c r="G45" s="2">
         <v>144</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58F066D0-7264-4A70-9BA3-5DBAE1E3B149}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -1005,7 +999,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1180,7 +1174,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1212,7 +1206,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1242,7 +1236,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1248,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1274,7 +1268,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1304,7 +1298,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1310,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1336,7 +1330,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1366,7 +1360,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1372,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1398,7 +1392,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1428,7 +1422,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1434,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1460,7 +1454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1489,7 +1483,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1527,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1571,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1615,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1659,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1703,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1747,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1791,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1835,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1885,7 +1879,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1923,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1967,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2011,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2055,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2099,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2143,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2187,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2231,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2275,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2319,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2363,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2407,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2451,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2495,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2539,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2583,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2627,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2671,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2715,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2759,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2803,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2847,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2891,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2935,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2979,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3023,7 @@
         <xdr:cNvPr id="43" name="图片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3067,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3111,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3155,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3199,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3243,7 @@
         <xdr:cNvPr id="48" name="图片 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3287,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3331,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3375,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3419,7 @@
         <xdr:cNvPr id="52" name="图片 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3463,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3507,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3551,7 @@
         <xdr:cNvPr id="55" name="图片 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3601,7 +3595,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3639,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3683,7 @@
         <xdr:cNvPr id="58" name="图片 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3733,7 +3727,7 @@
         <xdr:cNvPr id="59" name="图片 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3771,7 @@
         <xdr:cNvPr id="60" name="图片 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,7 +3815,7 @@
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3859,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3909,7 +3903,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3953,7 +3947,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +3991,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4041,7 +4035,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4079,7 @@
         <xdr:cNvPr id="67" name="图片 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4123,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4173,7 +4167,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4211,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C963F-62C6-4D80-9715-BAEE5FB06F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC5C963F-62C6-4D80-9715-BAEE5FB06F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4261,7 +4255,7 @@
         <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8439C6DA-47D1-430A-B04A-0BD3BE29C9C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8439C6DA-47D1-430A-B04A-0BD3BE29C9C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4299,7 @@
         <xdr:cNvPr id="72" name="图片 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4E7DF1-C644-47A5-8C2E-B6A906BF6D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF4E7DF1-C644-47A5-8C2E-B6A906BF6D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4349,7 +4343,7 @@
         <xdr:cNvPr id="73" name="图片 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C567C7-ADB9-4B49-B19E-B38C5EFA2CC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8C567C7-ADB9-4B49-B19E-B38C5EFA2CC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4393,7 +4387,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DEECAF-54E3-46F8-951D-CE5871B7C698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1DEECAF-54E3-46F8-951D-CE5871B7C698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4431,7 @@
         <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82CA297-2A92-496F-BAFB-4918811E2AA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F82CA297-2A92-496F-BAFB-4918811E2AA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4481,7 +4475,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA830A1-2FEF-4527-88F3-00C1090D5F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AA830A1-2FEF-4527-88F3-00C1090D5F48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4519,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C06377A-5643-41D8-846B-AB0DEE7EF0B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C06377A-5643-41D8-846B-AB0DEE7EF0B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4569,7 +4563,7 @@
         <xdr:cNvPr id="78" name="图片 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135CCF61-DD00-46B4-A2D6-E243441295D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135CCF61-DD00-46B4-A2D6-E243441295D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4613,7 +4607,7 @@
         <xdr:cNvPr id="79" name="图片 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7275B1-0632-495B-9030-53714CE47931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA7275B1-0632-495B-9030-53714CE47931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4657,7 +4651,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B1BDA8-75A9-4F90-8173-19B92120CFEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B1BDA8-75A9-4F90-8173-19B92120CFEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4701,7 +4695,7 @@
         <xdr:cNvPr id="81" name="图片 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2030D096-2B00-4DE0-B76C-B9192308F84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2030D096-2B00-4DE0-B76C-B9192308F84A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4745,7 +4739,7 @@
         <xdr:cNvPr id="82" name="图片 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33485CE5-B816-4A84-80C6-3C12BF1307CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33485CE5-B816-4A84-80C6-3C12BF1307CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4783,7 @@
         <xdr:cNvPr id="83" name="图片 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EEBBEA-2F4F-46E5-ACF8-F921507CAA6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2EEBBEA-2F4F-46E5-ACF8-F921507CAA6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4833,7 +4827,7 @@
         <xdr:cNvPr id="84" name="图片 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5418B3E-955C-4B4B-8AE7-DB6F164089B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5418B3E-955C-4B4B-8AE7-DB6F164089B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,7 +4871,7 @@
         <xdr:cNvPr id="85" name="图片 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6758F0FC-8A5E-4B84-8165-89103E53E5A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6758F0FC-8A5E-4B84-8165-89103E53E5A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4921,7 +4915,7 @@
         <xdr:cNvPr id="86" name="图片 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DCA3ED-43B1-4804-B2AE-593E6EFB3F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DCA3ED-43B1-4804-B2AE-593E6EFB3F21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4965,7 +4959,7 @@
         <xdr:cNvPr id="87" name="图片 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D04E212-692F-4F6E-9502-05A825156060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D04E212-692F-4F6E-9502-05A825156060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5015,7 +5009,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5625A511-DE5A-461B-BD0F-D1BEAEAE9ACC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5625A511-DE5A-461B-BD0F-D1BEAEAE9ACC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,10 +5018,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5047,7 +5041,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5077,7 +5071,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F6D73D-ADE6-4676-B351-15B65A08BF81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21F6D73D-ADE6-4676-B351-15B65A08BF81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5086,10 +5080,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5109,7 +5103,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5139,7 +5133,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4AAE57E-8C68-41EA-9EC9-DFA0CF8D7B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4AAE57E-8C68-41EA-9EC9-DFA0CF8D7B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5148,10 +5142,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5171,7 +5165,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5201,7 +5195,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4823EA03-4778-426E-8E98-46FBC44D0211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4823EA03-4778-426E-8E98-46FBC44D0211}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,10 +5204,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5233,7 +5227,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5262,7 +5256,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795FA7A1-0986-4A1F-BD77-F873F651B0C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795FA7A1-0986-4A1F-BD77-F873F651B0C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5300,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D4D850-A984-4ABB-A028-C3B50C16DC72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4D4D850-A984-4ABB-A028-C3B50C16DC72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,7 +5344,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A7CF1-CCA9-456C-B35D-AA4841B3C937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{974A7CF1-CCA9-456C-B35D-AA4841B3C937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5388,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFD34BD-F692-468E-89AD-660E91E28285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CFD34BD-F692-468E-89AD-660E91E28285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5432,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB6CBF-760F-42DE-9CEA-AA2FD3A7100D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DB6CBF-760F-42DE-9CEA-AA2FD3A7100D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,7 +5476,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFDD3D6-6E45-41DD-B96F-94C2E4326663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FFDD3D6-6E45-41DD-B96F-94C2E4326663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,7 +5520,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BD6095-46B0-4B48-9DCF-03F2D3CE9A6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1BD6095-46B0-4B48-9DCF-03F2D3CE9A6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5570,7 +5564,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52808660-19A7-4B91-94EF-3AD258A16D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52808660-19A7-4B91-94EF-3AD258A16D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5608,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE44E24-1957-40B4-A462-5294E7B0F039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BE44E24-1957-40B4-A462-5294E7B0F039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5658,7 +5652,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5684,11 +5678,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322342</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="11849100"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5730,7 +5768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5762,27 +5800,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5814,24 +5834,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6007,7 +6009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -8091,196 +8093,196 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
@@ -8289,11 +8291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9324,7 +9326,9 @@
     </row>
     <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
       <c r="C51" s="2">
         <v>1084</v>
       </c>
@@ -9340,8 +9344,8 @@
       <c r="G51" s="2">
         <v>147</v>
       </c>
-      <c r="H51" t="s">
-        <v>318</v>
+      <c r="H51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.25" thickBot="1">
@@ -10569,234 +10573,234 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
-    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
-    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
-    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
-    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
-    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
-    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
-    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
-    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
-    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
-    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
-    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
-    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
-    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
-    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
-    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
-    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
-    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
-    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
-    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
-    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
-    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
-    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
-    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
-    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
-    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
-    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
-    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
-    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
-    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
-    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
-    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
-    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
-    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
-    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
-    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
-    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
-    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
-    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800"/>
+    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133"/>
+    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133"/>
+    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072"/>
+    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072"/>
+    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048"/>
+    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048"/>
+    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423"/>
+    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423"/>
+    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494"/>
+    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494"/>
+    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789"/>
+    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789"/>
+    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944"/>
+    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944"/>
+    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114"/>
+    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114"/>
+    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645"/>
+    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645"/>
+    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917"/>
+    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917"/>
+    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208"/>
+    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208"/>
+    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656"/>
+    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656"/>
+    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164"/>
+    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164"/>
+    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348"/>
+    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348"/>
+    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885"/>
+    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885"/>
+    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112"/>
+    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112"/>
+    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869"/>
+    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869"/>
+    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070"/>
+    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070"/>
+    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138"/>
+    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
@@ -10805,7 +10809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29C47701-F37C-4C85-9B30-15422EE50D1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -969,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -999,7 +1009,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1174,7 +1184,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1196,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1206,7 +1216,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1236,7 +1246,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1258,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1268,7 +1278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1298,7 +1308,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1310,7 +1320,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1330,7 +1340,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1360,7 +1370,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1382,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1392,7 +1402,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1422,7 +1432,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1444,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1454,7 +1464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1483,7 +1493,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1537,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1581,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1625,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1669,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1713,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1757,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1801,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1845,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1889,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1933,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1977,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2021,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2065,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2109,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2153,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2197,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2241,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2285,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2329,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2373,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2417,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2461,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2505,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2549,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2593,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2637,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2681,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2725,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2769,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2813,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2857,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2901,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2945,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2989,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3033,7 @@
         <xdr:cNvPr id="43" name="图片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3077,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3111,7 +3121,7 @@
         <xdr:cNvPr id="45" name="图片 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3165,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3209,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3253,7 @@
         <xdr:cNvPr id="48" name="图片 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3297,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3341,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3385,7 @@
         <xdr:cNvPr id="51" name="图片 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3429,7 @@
         <xdr:cNvPr id="52" name="图片 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3473,7 @@
         <xdr:cNvPr id="53" name="图片 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3517,7 @@
         <xdr:cNvPr id="54" name="图片 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3561,7 @@
         <xdr:cNvPr id="55" name="图片 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,7 +3605,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3649,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3693,7 @@
         <xdr:cNvPr id="58" name="图片 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3727,7 +3737,7 @@
         <xdr:cNvPr id="59" name="图片 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,7 +3781,7 @@
         <xdr:cNvPr id="60" name="图片 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,7 +3825,7 @@
         <xdr:cNvPr id="61" name="图片 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3869,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +3913,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +3957,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +4001,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +4045,7 @@
         <xdr:cNvPr id="66" name="图片 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4089,7 @@
         <xdr:cNvPr id="67" name="图片 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4133,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4177,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,7 +4221,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC5C963F-62C6-4D80-9715-BAEE5FB06F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4265,7 @@
         <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8439C6DA-47D1-430A-B04A-0BD3BE29C9C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,7 +4309,7 @@
         <xdr:cNvPr id="72" name="图片 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF4E7DF1-C644-47A5-8C2E-B6A906BF6D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4343,7 +4353,7 @@
         <xdr:cNvPr id="73" name="图片 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8C567C7-ADB9-4B49-B19E-B38C5EFA2CC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4387,7 +4397,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1DEECAF-54E3-46F8-951D-CE5871B7C698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,7 +4441,7 @@
         <xdr:cNvPr id="75" name="图片 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F82CA297-2A92-496F-BAFB-4918811E2AA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4485,7 @@
         <xdr:cNvPr id="76" name="图片 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AA830A1-2FEF-4527-88F3-00C1090D5F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,7 +4529,7 @@
         <xdr:cNvPr id="77" name="图片 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C06377A-5643-41D8-846B-AB0DEE7EF0B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4573,7 @@
         <xdr:cNvPr id="78" name="图片 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{135CCF61-DD00-46B4-A2D6-E243441295D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4607,7 +4617,7 @@
         <xdr:cNvPr id="79" name="图片 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA7275B1-0632-495B-9030-53714CE47931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,7 +4661,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B1BDA8-75A9-4F90-8173-19B92120CFEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4695,7 +4705,7 @@
         <xdr:cNvPr id="81" name="图片 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2030D096-2B00-4DE0-B76C-B9192308F84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4739,7 +4749,7 @@
         <xdr:cNvPr id="82" name="图片 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33485CE5-B816-4A84-80C6-3C12BF1307CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4783,7 +4793,7 @@
         <xdr:cNvPr id="83" name="图片 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2EEBBEA-2F4F-46E5-ACF8-F921507CAA6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,7 +4837,7 @@
         <xdr:cNvPr id="84" name="图片 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5418B3E-955C-4B4B-8AE7-DB6F164089B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,7 +4881,7 @@
         <xdr:cNvPr id="85" name="图片 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6758F0FC-8A5E-4B84-8165-89103E53E5A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4915,7 +4925,7 @@
         <xdr:cNvPr id="86" name="图片 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3DCA3ED-43B1-4804-B2AE-593E6EFB3F21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4959,7 +4969,7 @@
         <xdr:cNvPr id="87" name="图片 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D04E212-692F-4F6E-9502-05A825156060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,7 +5019,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5625A511-DE5A-461B-BD0F-D1BEAEAE9ACC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5021,7 +5031,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5041,7 +5051,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5071,7 +5081,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21F6D73D-ADE6-4676-B351-15B65A08BF81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5093,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5103,7 +5113,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5133,7 +5143,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4AAE57E-8C68-41EA-9EC9-DFA0CF8D7B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,7 +5155,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5165,7 +5175,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5195,7 +5205,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4823EA03-4778-426E-8E98-46FBC44D0211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5207,7 +5217,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5227,7 +5237,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5256,7 +5266,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{795FA7A1-0986-4A1F-BD77-F873F651B0C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5300,7 +5310,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4D4D850-A984-4ABB-A028-C3B50C16DC72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5354,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{974A7CF1-CCA9-456C-B35D-AA4841B3C937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5398,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CFD34BD-F692-468E-89AD-660E91E28285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5432,7 +5442,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DB6CBF-760F-42DE-9CEA-AA2FD3A7100D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5476,7 +5486,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FFDD3D6-6E45-41DD-B96F-94C2E4326663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,7 +5530,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1BD6095-46B0-4B48-9DCF-03F2D3CE9A6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5574,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52808660-19A7-4B91-94EF-3AD258A16D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5618,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BE44E24-1957-40B4-A462-5294E7B0F039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5652,7 +5662,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5696,7 +5706,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAB5D80E-80C6-43D3-98B6-9A61895482B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5722,11 +5732,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E00BB6B-D910-4954-80A6-1CFD8809A12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="8839200"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5768,7 +5822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5800,9 +5854,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5834,6 +5906,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6009,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -8093,196 +8183,196 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>
@@ -8291,11 +8381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9059,7 +9149,9 @@
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
       <c r="C38" s="2">
         <v>1402</v>
       </c>
@@ -9074,6 +9166,9 @@
       </c>
       <c r="G38" s="2">
         <v>137</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
@@ -9258,6 +9353,9 @@
       <c r="G47" s="2">
         <v>145</v>
       </c>
+      <c r="H47" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
@@ -10573,234 +10671,234 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136"/>
-    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296"/>
-    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214"/>
-    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018"/>
-    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018"/>
-    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014"/>
-    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014"/>
-    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020"/>
-    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020"/>
-    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228"/>
-    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228"/>
-    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330"/>
-    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330"/>
-    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126"/>
-    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126"/>
-    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573"/>
-    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573"/>
-    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010"/>
-    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010"/>
-    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192"/>
-    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192"/>
-    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777"/>
-    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777"/>
-    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079"/>
-    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079"/>
-    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353"/>
-    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353"/>
-    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086"/>
-    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086"/>
-    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226"/>
-    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226"/>
-    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082"/>
-    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082"/>
-    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582"/>
-    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582"/>
-    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219"/>
-    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219"/>
-    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260"/>
-    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260"/>
-    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044"/>
-    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044"/>
-    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123"/>
-    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123"/>
-    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206"/>
-    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206"/>
-    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711"/>
-    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711"/>
-    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283"/>
-    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283"/>
-    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336"/>
-    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336"/>
-    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102"/>
-    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102"/>
-    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982"/>
-    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982"/>
-    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020"/>
-    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020"/>
-    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683"/>
-    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683"/>
-    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688"/>
-    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688"/>
-    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000"/>
-    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000"/>
-    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352"/>
-    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352"/>
-    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725"/>
-    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725"/>
-    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022"/>
-    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022"/>
-    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402"/>
-    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402"/>
-    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868"/>
-    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868"/>
-    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021"/>
-    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021"/>
-    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222"/>
-    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222"/>
-    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740"/>
-    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740"/>
-    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167"/>
-    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167"/>
-    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612"/>
-    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612"/>
-    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964"/>
-    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964"/>
-    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576"/>
-    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576"/>
-    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788"/>
-    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788"/>
-    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931"/>
-    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931"/>
-    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178"/>
-    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178"/>
-    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026"/>
-    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026"/>
-    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084"/>
-    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084"/>
-    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142"/>
-    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142"/>
-    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572"/>
-    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572"/>
-    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864"/>
-    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864"/>
-    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210"/>
-    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210"/>
-    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821"/>
-    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821"/>
-    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306"/>
-    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306"/>
-    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069"/>
-    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069"/>
-    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073"/>
-    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073"/>
-    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280"/>
-    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280"/>
-    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295"/>
-    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295"/>
-    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354"/>
-    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354"/>
-    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671"/>
-    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671"/>
-    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709"/>
-    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709"/>
-    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017"/>
-    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017"/>
-    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984"/>
-    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984"/>
-    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586"/>
-    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586"/>
-    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073"/>
-    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073"/>
-    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272"/>
-    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272"/>
-    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756"/>
-    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756"/>
-    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846"/>
-    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846"/>
-    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993"/>
-    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993"/>
-    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135"/>
-    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135"/>
-    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506"/>
-    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506"/>
-    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613"/>
-    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613"/>
-    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157"/>
-    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157"/>
-    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874"/>
-    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874"/>
-    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213"/>
-    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213"/>
-    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012"/>
-    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012"/>
-    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640"/>
-    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640"/>
-    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878"/>
-    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878"/>
-    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152"/>
-    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152"/>
-    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413"/>
-    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413"/>
-    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207"/>
-    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207"/>
-    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335"/>
-    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335"/>
-    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794"/>
-    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794"/>
-    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915"/>
-    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915"/>
-    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102"/>
-    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102"/>
-    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134"/>
-    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134"/>
-    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685"/>
-    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685"/>
-    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193"/>
-    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193"/>
-    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091"/>
-    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091"/>
-    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930"/>
-    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930"/>
-    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769"/>
-    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769"/>
-    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727"/>
-    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727"/>
-    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800"/>
-    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800"/>
-    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133"/>
-    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133"/>
-    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072"/>
-    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072"/>
-    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048"/>
-    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048"/>
-    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423"/>
-    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423"/>
-    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494"/>
-    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494"/>
-    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789"/>
-    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789"/>
-    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944"/>
-    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944"/>
-    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114"/>
-    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114"/>
-    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645"/>
-    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645"/>
-    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917"/>
-    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917"/>
-    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208"/>
-    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208"/>
-    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656"/>
-    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656"/>
-    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164"/>
-    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164"/>
-    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348"/>
-    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348"/>
-    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885"/>
-    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885"/>
-    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112"/>
-    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112"/>
-    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869"/>
-    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869"/>
-    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070"/>
-    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070"/>
-    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138"/>
-    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1136" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1296" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1214" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2018" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1014" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1020" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1228" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1330" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1126" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1573" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2010" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1192" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1777" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1079" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1353" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1086" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1226" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1082" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1582" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1219" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1260" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1044" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1123" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1206" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1711" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1283" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1336" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2102" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1982" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2020" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1683" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1688" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2000" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1352" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1725" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1022" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1402" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1868" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1021" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1222" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1740" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1167" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1612" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1964" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1576" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1788" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1931" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1178" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1026" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1084" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1142" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1572" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1864" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1210" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1821" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1306" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2069" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1073" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1280" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1295" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1354" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1671" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1709" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1017" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1984" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1586" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2073" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1272" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1756" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1846" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1993" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1135" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1506" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1613" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1157" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1874" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1213" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1012" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1640" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1878" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1152" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1413" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1207" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1335" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1794" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1915" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1102" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1134" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1685" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1193" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2091" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1930" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1769" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1727" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1800" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="D97" r:id="rId191" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="F97" r:id="rId192" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1133" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="D98" r:id="rId193" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="F98" r:id="rId194" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2072" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="D99" r:id="rId195" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="F99" r:id="rId196" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1048" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="D100" r:id="rId197" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="F100" r:id="rId198" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1423" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="D101" r:id="rId199" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="F101" r:id="rId200" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1494" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="D102" r:id="rId201" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="F102" r:id="rId202" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1789" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="D103" r:id="rId203" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="F103" r:id="rId204" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1944" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="D104" r:id="rId205" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="F104" r:id="rId206" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1114" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="D105" r:id="rId207" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="F105" r:id="rId208" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1645" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="D106" r:id="rId209" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="F106" r:id="rId210" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1917" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="D107" r:id="rId211" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="F107" r:id="rId212" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1208" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="D108" r:id="rId213" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="F108" r:id="rId214" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1656" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="D109" r:id="rId215" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="F109" r:id="rId216" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1164" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="D110" r:id="rId217" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="F110" r:id="rId218" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1348" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="D111" r:id="rId219" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="F111" r:id="rId220" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1885" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="D112" r:id="rId221" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="F112" r:id="rId222" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1112" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="D113" r:id="rId223" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="F113" r:id="rId224" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1869" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="D114" r:id="rId225" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="F114" r:id="rId226" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2070" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="D115" r:id="rId227" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="F115" r:id="rId228" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1138" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId229"/>
@@ -10809,7 +10907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29C47701-F37C-4C85-9B30-15422EE50D1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{115278A3-18EF-430E-AD62-3FC4B6CBCC78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5559,15 +5563,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>369967</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>217567</xdr:rowOff>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5590,7 +5594,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="4981575"/>
+          <a:off x="228600" y="3876675"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8384,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8496,6 +8500,9 @@
       <c r="G5" s="2">
         <v>102</v>
       </c>
+      <c r="H5" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="2"/>
@@ -8753,7 +8760,9 @@
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
       <c r="C18" s="2">
         <v>1226</v>
       </c>

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{115278A3-18EF-430E-AD62-3FC4B6CBCC78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D507A5F-4379-44FA-ABAA-58E1D327FA73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5771,6 +5771,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="8839200"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D074B606-2C50-43BB-9236-0649A2A1CBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="9686925"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADBB492-A95A-4569-A8E8-BFE3D03843D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="10144125"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8388,8 +8476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9284,7 +9372,9 @@
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
       <c r="C44" s="2">
         <v>1612</v>
       </c>
@@ -9299,6 +9389,9 @@
       </c>
       <c r="G44" s="2">
         <v>144</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D507A5F-4379-44FA-ABAA-58E1D327FA73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A495A39-5511-422F-BBA3-204A89E64741}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5859,6 +5859,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="10144125"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB3AC01-4BD1-4E22-91D6-D0F5B89EA097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="4305300"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8476,8 +8520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8888,7 +8932,9 @@
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
       <c r="C20" s="2">
         <v>1582</v>
       </c>
@@ -8903,6 +8949,9 @@
       </c>
       <c r="G20" s="2">
         <v>117</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A495A39-5511-422F-BBA3-204A89E64741}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17074F34-5E62-4A76-A653-DB3C1256D2BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="322">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5903,6 +5907,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="4305300"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC856C4-67C1-494F-9E1E-C522EE02A790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="4533900"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8521,7 +8569,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8956,7 +9004,9 @@
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
       <c r="C21" s="2">
         <v>1219</v>
       </c>
@@ -8971,6 +9021,9 @@
       </c>
       <c r="G21" s="2">
         <v>118</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1">
@@ -9033,6 +9086,9 @@
       </c>
       <c r="G24" s="2">
         <v>122</v>
+      </c>
+      <c r="H24" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{17074F34-5E62-4A76-A653-DB3C1256D2BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0F73651-6B86-4E9B-B0CB-C47073620F2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="323">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5951,6 +5955,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="4533900"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90333958-328E-4392-BAF6-8AD734203F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7229475"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8568,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8681,7 +8729,7 @@
         <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
@@ -8977,6 +9025,9 @@
       <c r="G19" s="2">
         <v>117</v>
       </c>
+      <c r="H19" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="2"/>
@@ -9088,7 +9139,7 @@
         <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" thickBot="1">
@@ -9229,7 +9280,9 @@
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
       <c r="C32" s="2">
         <v>1683</v>
       </c>
@@ -9244,6 +9297,9 @@
       </c>
       <c r="G32" s="2">
         <v>129</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
@@ -9329,6 +9385,9 @@
       <c r="G36" s="2">
         <v>133</v>
       </c>
+      <c r="H36" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
@@ -9348,6 +9407,9 @@
       <c r="G37" s="2">
         <v>136</v>
       </c>
+      <c r="H37" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
@@ -9450,8 +9512,8 @@
       <c r="G42" s="2">
         <v>142</v>
       </c>
-      <c r="H42" t="s">
-        <v>316</v>
+      <c r="H42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
@@ -9541,6 +9603,9 @@
       <c r="G46" s="2">
         <v>145</v>
       </c>
+      <c r="H46" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="29.25" thickBot="1">
       <c r="A47" s="2"/>
@@ -9561,7 +9626,7 @@
         <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
@@ -9583,7 +9648,7 @@
         <v>145</v>
       </c>
       <c r="H48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1">
@@ -9605,7 +9670,7 @@
         <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1">
@@ -9734,7 +9799,7 @@
         <v>152</v>
       </c>
       <c r="H55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0F73651-6B86-4E9B-B0CB-C47073620F2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3AE517C-158B-43DB-8980-43065D3378D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="322">
   <si>
     <t>ID</t>
   </si>
@@ -975,10 +975,6 @@
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -5999,6 +5995,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="7229475"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD74D3D-5939-4891-B155-916C8526A4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="5191125"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8616,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9026,7 +9066,7 @@
         <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
@@ -9122,7 +9162,9 @@
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
       <c r="C24" s="2">
         <v>1123</v>
       </c>
@@ -9138,8 +9180,8 @@
       <c r="G24" s="2">
         <v>122</v>
       </c>
-      <c r="H24" t="s">
-        <v>320</v>
+      <c r="H24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" thickBot="1">
@@ -9386,7 +9428,7 @@
         <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
@@ -9408,7 +9450,7 @@
         <v>136</v>
       </c>
       <c r="H37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
@@ -9604,7 +9646,7 @@
         <v>145</v>
       </c>
       <c r="H46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="29.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3AE517C-158B-43DB-8980-43065D3378D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E43C664A-629A-450B-835B-F5840BE831E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6039,6 +6039,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="5191125"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB0016F-6B9E-46ED-BEA0-97D4DD4F3EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="5972175"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8657,7 +8701,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9227,7 +9271,9 @@
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
       <c r="C27" s="2">
         <v>1283</v>
       </c>
@@ -9242,6 +9288,9 @@
       </c>
       <c r="G27" s="2">
         <v>124</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E43C664A-629A-450B-835B-F5840BE831E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50F0494B-F67A-4489-A471-45D73E6E06FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="323">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6083,6 +6087,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="5972175"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDD2AA8-D775-4D42-8AFA-169E94E9CC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="6200775"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8701,7 +8749,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9295,7 +9343,9 @@
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
       <c r="C28" s="2">
         <v>1336</v>
       </c>
@@ -9349,6 +9399,9 @@
       <c r="G30" s="2">
         <v>128</v>
       </c>
+      <c r="H30" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="27.75" thickBot="1">
       <c r="A31" s="2"/>
@@ -9367,6 +9420,9 @@
       </c>
       <c r="G31" s="2">
         <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50F0494B-F67A-4489-A471-45D73E6E06FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C15BB48-F11D-4CF9-9119-10161AD31A59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6131,6 +6131,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="6200775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158FA9A6-7301-4D5D-990A-6F41A1BBF95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="4762500"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>331867</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E74437-918B-4EF2-BFAB-D03FEA80D4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="27870150"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8748,8 +8836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9211,7 +9299,9 @@
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
       <c r="C22" s="2">
         <v>1260</v>
       </c>
@@ -9226,6 +9316,9 @@
       </c>
       <c r="G22" s="2">
         <v>118</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1">
@@ -11030,9 +11123,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.25" thickBot="1">
+    <row r="113" spans="1:8" ht="17.25" thickBot="1">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
       <c r="C113" s="2">
         <v>1869</v>
       </c>
@@ -11048,8 +11143,11 @@
       <c r="G113" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="29.25" thickBot="1">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="29.25" thickBot="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2">
@@ -11068,7 +11166,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.25" thickBot="1">
+    <row r="115" spans="1:8" ht="17.25" thickBot="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C15BB48-F11D-4CF9-9119-10161AD31A59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05594A0B-47C9-4ED6-B7D1-B2E93C0E5861}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -975,6 +975,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6219,6 +6223,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142875" y="27870150"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3734FDF3-4C5F-40F8-8372-BFBF0B0B53FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="26774775"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8837,7 +8885,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10819,7 +10867,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.25" thickBot="1">
+    <row r="97" spans="1:8" ht="17.25" thickBot="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2">
@@ -10838,7 +10886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="29.25" thickBot="1">
+    <row r="98" spans="1:8" ht="29.25" thickBot="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2">
@@ -10857,7 +10905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.25" thickBot="1">
+    <row r="99" spans="1:8" ht="17.25" thickBot="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2">
@@ -10876,7 +10924,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.25" thickBot="1">
+    <row r="100" spans="1:8" ht="17.25" thickBot="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2">
@@ -10895,7 +10943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.25" thickBot="1">
+    <row r="101" spans="1:8" ht="17.25" thickBot="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2">
@@ -10914,7 +10962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="29.25" thickBot="1">
+    <row r="102" spans="1:8" ht="29.25" thickBot="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2">
@@ -10933,7 +10981,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27.75" thickBot="1">
+    <row r="103" spans="1:8" ht="27.75" thickBot="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2">
@@ -10952,7 +11000,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.25" thickBot="1">
+    <row r="104" spans="1:8" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2">
@@ -10971,7 +11019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.25" thickBot="1">
+    <row r="105" spans="1:8" ht="17.25" thickBot="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2">
@@ -10990,7 +11038,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="27.75" thickBot="1">
+    <row r="106" spans="1:8" ht="27.75" thickBot="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2">
@@ -11009,7 +11057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.25" thickBot="1">
+    <row r="107" spans="1:8" ht="17.25" thickBot="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2">
@@ -11028,9 +11076,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.25" thickBot="1">
+    <row r="108" spans="1:8" ht="17.25" thickBot="1">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
       <c r="C108" s="2">
         <v>1656</v>
       </c>
@@ -11046,8 +11096,11 @@
       <c r="G108" s="2">
         <v>194</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" thickBot="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2">
@@ -11065,8 +11118,11 @@
       <c r="G109" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H109" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" thickBot="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2">
@@ -11085,7 +11141,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.25" thickBot="1">
+    <row r="111" spans="1:8" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2">
@@ -11104,7 +11160,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.25" thickBot="1">
+    <row r="112" spans="1:8" ht="17.25" thickBot="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05594A0B-47C9-4ED6-B7D1-B2E93C0E5861}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E8C4BD7-D455-47D8-BEFF-404AB65B97EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6267,6 +6267,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="26774775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932BF3A3-F260-4EC6-A645-B922196D76BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="27422475"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8885,7 +8929,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11143,7 +11187,9 @@
     </row>
     <row r="111" spans="1:8" ht="17.25" thickBot="1">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
       <c r="C111" s="2">
         <v>1885</v>
       </c>
@@ -11158,6 +11204,9 @@
       </c>
       <c r="G111" s="2">
         <v>198</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E8C4BD7-D455-47D8-BEFF-404AB65B97EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FEAF43D-238D-47BD-9D23-1AB5AF412745}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6311,6 +6311,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="27422475"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6FD04-CB88-459A-A30E-A89D46DC59F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="23574375"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8929,7 +8973,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10607,7 +10651,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="29.25" thickBot="1">
+    <row r="81" spans="1:8" ht="29.25" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2">
@@ -10626,7 +10670,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.25" thickBot="1">
+    <row r="82" spans="1:8" ht="17.25" thickBot="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2">
@@ -10645,7 +10689,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.25" thickBot="1">
+    <row r="83" spans="1:8" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2">
@@ -10664,7 +10708,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.25" thickBot="1">
+    <row r="84" spans="1:8" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2">
@@ -10683,7 +10727,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.25" thickBot="1">
+    <row r="85" spans="1:8" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2">
@@ -10702,7 +10746,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="29.25" thickBot="1">
+    <row r="86" spans="1:8" ht="29.25" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2">
@@ -10721,7 +10765,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27.75" thickBot="1">
+    <row r="87" spans="1:8" ht="27.75" thickBot="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2">
@@ -10740,7 +10784,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.25" thickBot="1">
+    <row r="88" spans="1:8" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2">
@@ -10759,7 +10803,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.25" thickBot="1">
+    <row r="89" spans="1:8" ht="17.25" thickBot="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2">
@@ -10778,7 +10822,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.25" thickBot="1">
+    <row r="90" spans="1:8" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2">
@@ -10797,7 +10841,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.25" thickBot="1">
+    <row r="91" spans="1:8" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2">
@@ -10816,7 +10860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.25" thickBot="1">
+    <row r="92" spans="1:8" ht="17.25" thickBot="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2">
@@ -10835,7 +10879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="29.25" thickBot="1">
+    <row r="93" spans="1:8" ht="29.25" thickBot="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2">
@@ -10854,7 +10898,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.25" thickBot="1">
+    <row r="94" spans="1:8" ht="17.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2">
@@ -10873,7 +10917,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="29.25" thickBot="1">
+    <row r="95" spans="1:8" ht="29.25" thickBot="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2">
@@ -10892,9 +10936,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.25" thickBot="1">
+    <row r="96" spans="1:8" ht="17.25" thickBot="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
       <c r="C96" s="2">
         <v>1800</v>
       </c>
@@ -10909,6 +10955,9 @@
       </c>
       <c r="G96" s="2">
         <v>184</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="17.25" thickBot="1">

--- a/ural 200.xlsx
+++ b/ural 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FEAF43D-238D-47BD-9D23-1AB5AF412745}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BABD7196-FC2D-4362-B156-BF118EF4B453}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6355,6 +6355,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="23574375"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196A590B-562F-4498-9173-EDD462D57B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="25784175"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8972,8 +9016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11095,7 +11139,9 @@
     </row>
     <row r="104" spans="1:8" ht="17.25" thickBot="1">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
       <c r="C104" s="2">
         <v>1114</v>
       </c>
@@ -11110,6 +11156,9 @@
       </c>
       <c r="G104" s="2">
         <v>190</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="17.25" thickBot="1">
